--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Franche-Comté/Liste_des_espèces_végétales_protégées_en_Franche-Comté.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Franche-Comté/Liste_des_espèces_végétales_protégées_en_Franche-Comté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Franche-Comt%C3%A9</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Franche-Comté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces protégées en Franche-Comté est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Franche-Comté, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans  un arrêté du 22 juin 1992[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces protégées en Franche-Comté est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Franche-Comté, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans  un arrêté du 22 juin 1992.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Franche-Comt%C3%A9</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Franche-Comté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Bryophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bryum cyclophyllum (Schwaegr.) B. et S.
 Calliergon trifarium (Web. et Mohr) Kindb.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Franche-Comt%C3%A9</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Franche-Comté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Adiantum capillus-veneris L. Cheveux de Vénus.
 Dryopteris remota (A. Braun ex Doll) Druce.
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Franche-Comt%C3%A9</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Franche-Comté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,8 +606,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Monocotylédones
-Agrostis agrostiflora (Beck) Rausch Agrostide délicate.
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Agrostis agrostiflora (Beck) Rausch Agrostide délicate.
 Baldellia ranunculoides (L.) Parl. Alisma fausse-renoncule.
 Butomus umbellatus L. Butome en ombelle.
 Calamagrostis stricta (Timm) Koeler Calamagrostide négligée.
@@ -637,9 +658,43 @@
 Stipa pennata L. Stipe penné.
 Stratiotes aloides L. Ananas d’eau.
 Streptopus amplexifolius (L.) DC. Streptope à feuilles embrassantes.
-Triglochin palustris L. Troscart des marais.
-Dicotylédones
-Aconitum anthora L. Aconit anthora.
+Triglochin palustris L. Troscart des marais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Franche-Comté</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Franche-Comt%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aconitum anthora L. Aconit anthora.
 Adenocarpus complicatus (L.) Gay. Adénocarpe plié.
 Alnus viridis (Chaix) DC. Aulne vert.
 Alyssum montanum L. Alysse des montagnes.
